--- a/data/HR1/Market Data/cs1_market_data_2020.xlsx
+++ b/data/HR1/Market Data/cs1_market_data_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1\market data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B6F39B-6A9E-40EA-A847-AEAA32C491D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A4B12B-630C-4372-BB52-89E5589ABE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1950" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="5" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1202,7 +1202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/data/HR1/Market Data/cs1_market_data_2020.xlsx
+++ b/data/HR1/Market Data/cs1_market_data_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A4B12B-630C-4372-BB52-89E5589ABE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2293F82B-3BDA-4599-B72F-51668B277D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
@@ -146,6 +146,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Market Costs, Summer"/>
@@ -155,12 +158,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>1.2500000000000001E-2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.2500000000000001E-2</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>

--- a/data/HR1/Market Data/cs1_market_data_2020.xlsx
+++ b/data/HR1/Market Data/cs1_market_data_2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2293F82B-3BDA-4599-B72F-51668B277D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3771C85-4AEA-487A-A6A6-7B39F1E33546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
@@ -158,12 +158,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0</v>
+            <v>2.5000000000000001E-3</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0</v>
+            <v>2.5000000000000001E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -1205,7 +1205,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="4">
         <v>0.2</v>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="4">
         <v>0.95</v>
@@ -1421,99 +1421,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>176.72511954812418</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.4</v>
+        <v>172.26000000000002</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>182.90805224814665</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>189.73914438845918</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.60000000000002</v>
+        <v>194.04000000000002</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.8</v>
+        <v>196.02</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>211.20000000000002</v>
+        <v>190.08</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>180.18</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.8</v>
+        <v>186.12</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>180.18</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>180.18</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>202.4</v>
+        <v>182.16</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.60000000000002</v>
+        <v>174.24000000000004</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>158.60207323726698</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2021,99 +2021,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.65919958920378</v>
+        <v>144.5932796302834</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>139.32000000000002</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>139.32000000000002</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>156.6</v>
+        <v>140.94</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>139.32000000000002</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>139.32000000000002</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.2800474983151</v>
+        <v>149.65204274848358</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.49013126223562</v>
+        <v>155.24111813601206</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.4</v>
+        <v>158.76000000000002</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>160.38000000000002</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.8</v>
+        <v>155.52000000000001</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>147.42000000000002</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>150.66</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.20000000000002</v>
+        <v>152.28000000000003</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>150.66</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>147.42000000000002</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>147.42000000000002</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>165.6</v>
+        <v>149.04</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>150.66</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.4</v>
+        <v>142.56</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>144.18370294296994</v>
+        <v>129.76533264867297</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2621,99 +2621,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.51022176578198</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.09531756474857</v>
+        <v>153.08578580827373</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.56503738887642</v>
+        <v>149.90853364998878</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.7510189672326</v>
+        <v>145.57591707050935</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.35569177444719</v>
+        <v>147.02012259700248</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.26862222792772</v>
+        <v>153.24176000513495</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>184.75560833146122</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.65570140248403</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>189.62739497416479</v>
+        <v>170.66465547674832</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.32045315960079</v>
+        <v>166.78840784364073</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.31092140312595</v>
+        <v>151.47982926281335</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.65095157097468</v>
+        <v>147.28585641387721</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.86328187682534</v>
+        <v>125.87695368914281</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.51173015822073</v>
+        <v>130.96055714239867</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>131.94903559164285</v>
+        <v>118.75413203247857</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>128.37382457716873</v>
+        <v>115.53644211945186</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>127.69344330690973</v>
+        <v>114.92409897621876</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>129.37514040887064</v>
+        <v>116.43762636798357</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.94309830225617</v>
+        <v>132.24878847203055</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.09942552713505</v>
+        <v>160.28948297442156</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.86193395166728</v>
+        <v>160.07574055650056</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.41362046278766</v>
+        <v>151.5722584165089</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.20411438107772</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3221,99 +3221,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.851022176578198</v>
+        <v>16.065919958920379</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.009531756474857</v>
+        <v>15.308578580827371</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.656503738887643</v>
+        <v>14.990853364998879</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175101896723259</v>
+        <v>14.557591707050934</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.335569177444722</v>
+        <v>14.70201225970025</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.026862222792772</v>
+        <v>15.324176000513495</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.475560833146123</v>
+        <v>16.628004749831511</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.165570140248402</v>
+        <v>17.249013126223563</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.962739497416479</v>
+        <v>17.066465547674831</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.53204531596008</v>
+        <v>16.678840784364073</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.831092140312595</v>
+        <v>15.147982926281337</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.365095157097468</v>
+        <v>14.728585641387721</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.986328187682535</v>
+        <v>12.587695368914282</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.551173015822073</v>
+        <v>13.096055714239865</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.194903559164286</v>
+        <v>11.875413203247858</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.837382457716874</v>
+        <v>11.553644211945187</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.769344330690974</v>
+        <v>11.492409897621876</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.937514040887065</v>
+        <v>11.643762636798359</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.694309830225619</v>
+        <v>13.224878847203057</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.809942552713505</v>
+        <v>16.028948297442156</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.78619339516673</v>
+        <v>16.007574055650057</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.841362046278768</v>
+        <v>15.157225841650892</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.020411438107772</v>
+        <v>14.418370294296995</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3821,99 +3821,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>32.131839917840757</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>32.131839917840757</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36</v>
+        <v>32.4</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>32.76</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>32.131839917840757</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>32.76</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.6</v>
+        <v>32.04</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.4</v>
+        <v>30.96</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>30.240000000000002</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>29.52</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32</v>
+        <v>28.8</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.400000000000006</v>
+        <v>29.160000000000007</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>29.52</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>29.879999999999995</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>30.240000000000002</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>29.879999999999995</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>30.240000000000002</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>29.879999999999995</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>30.240000000000002</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>29.879999999999995</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>29.52</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34</v>
+        <v>30.6</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>31.680000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4421,99 +4421,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>176.72511954812418</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.4</v>
+        <v>172.26000000000002</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>182.90805224814665</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>189.73914438845918</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.60000000000002</v>
+        <v>194.04000000000002</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.8</v>
+        <v>196.02</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>211.20000000000002</v>
+        <v>190.08</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>180.18</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.8</v>
+        <v>186.12</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>180.18</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>180.18</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>202.4</v>
+        <v>182.16</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.60000000000002</v>
+        <v>174.24000000000004</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>158.60207323726698</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5021,99 +5021,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.65919958920378</v>
+        <v>144.5932796302834</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>139.32000000000002</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>139.32000000000002</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>156.6</v>
+        <v>140.94</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>139.32000000000002</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>139.32000000000002</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.2800474983151</v>
+        <v>149.65204274848358</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.49013126223562</v>
+        <v>155.24111813601206</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.4</v>
+        <v>158.76000000000002</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>160.38000000000002</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.8</v>
+        <v>155.52000000000001</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>147.42000000000002</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>150.66</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.20000000000002</v>
+        <v>152.28000000000003</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>150.66</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>147.42000000000002</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>147.42000000000002</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>165.6</v>
+        <v>149.04</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>150.66</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.4</v>
+        <v>142.56</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>144.18370294296994</v>
+        <v>129.76533264867297</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5621,99 +5621,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.51022176578198</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.09531756474857</v>
+        <v>153.08578580827373</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.56503738887642</v>
+        <v>149.90853364998878</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.7510189672326</v>
+        <v>145.57591707050935</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.35569177444719</v>
+        <v>147.02012259700248</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.26862222792772</v>
+        <v>153.24176000513495</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>184.75560833146122</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.65570140248403</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>189.62739497416479</v>
+        <v>170.66465547674832</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.32045315960079</v>
+        <v>166.78840784364073</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.31092140312595</v>
+        <v>151.47982926281335</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.65095157097468</v>
+        <v>147.28585641387721</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.86328187682534</v>
+        <v>125.87695368914281</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.51173015822073</v>
+        <v>130.96055714239867</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>131.94903559164285</v>
+        <v>118.75413203247857</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>128.37382457716873</v>
+        <v>115.53644211945186</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>127.69344330690973</v>
+        <v>114.92409897621876</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>129.37514040887064</v>
+        <v>116.43762636798357</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.94309830225617</v>
+        <v>132.24878847203055</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.09942552713505</v>
+        <v>160.28948297442156</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.86193395166728</v>
+        <v>160.07574055650056</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.41362046278766</v>
+        <v>151.5722584165089</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.20411438107772</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6221,99 +6221,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.851022176578198</v>
+        <v>16.065919958920379</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.009531756474857</v>
+        <v>15.308578580827371</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.656503738887643</v>
+        <v>14.990853364998879</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175101896723259</v>
+        <v>14.557591707050934</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.335569177444722</v>
+        <v>14.70201225970025</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.026862222792772</v>
+        <v>15.324176000513495</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.475560833146123</v>
+        <v>16.628004749831511</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.165570140248402</v>
+        <v>17.249013126223563</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.962739497416479</v>
+        <v>17.066465547674831</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.53204531596008</v>
+        <v>16.678840784364073</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.831092140312595</v>
+        <v>15.147982926281337</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.365095157097468</v>
+        <v>14.728585641387721</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.986328187682535</v>
+        <v>12.587695368914282</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.551173015822073</v>
+        <v>13.096055714239865</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.194903559164286</v>
+        <v>11.875413203247858</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.837382457716874</v>
+        <v>11.553644211945187</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.769344330690974</v>
+        <v>11.492409897621876</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.937514040887065</v>
+        <v>11.643762636798359</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.694309830225619</v>
+        <v>13.224878847203057</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.809942552713505</v>
+        <v>16.028948297442156</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.78619339516673</v>
+        <v>16.007574055650057</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.841362046278768</v>
+        <v>15.157225841650892</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.020411438107772</v>
+        <v>14.418370294296995</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6821,99 +6821,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>32.131839917840757</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>32.131839917840757</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36</v>
+        <v>32.4</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>32.76</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>32.131839917840757</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>32.76</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.6</v>
+        <v>32.04</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.4</v>
+        <v>30.96</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>30.240000000000002</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>29.52</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32</v>
+        <v>28.8</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.400000000000006</v>
+        <v>29.160000000000007</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>29.52</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>29.879999999999995</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>30.240000000000002</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>29.879999999999995</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>30.240000000000002</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>29.879999999999995</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>30.240000000000002</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>29.879999999999995</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>29.52</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34</v>
+        <v>30.6</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>31.680000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
